--- a/analytica/agriculture/parameter_ranges-Rev-NDC+Agriculture.xlsx
+++ b/analytica/agriculture/parameter_ranges-Rev-NDC+Agriculture.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catalina Marinkovic\Dropbox (CCG-UC)\Carpeta del equipo CCG-UC\A Proyectos Actuales\2020-DDPLTSChile\Desarrollo\Envio 2021-02-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documentos\GitHub\MultiSector_LTS_Chile\analytica\agriculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB713A3D-B1B3-4035-A996-02E5288758E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5998A296-26B7-4ADC-A6D5-63CD12436FA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +439,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -600,55 +606,58 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -666,7 +675,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -964,11 +973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:AS85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -8498,3706 +8507,3750 @@
       </c>
     </row>
     <row r="58" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
         <v>2</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58" s="1">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4">
+        <v>1</v>
+      </c>
+      <c r="H58" s="5">
         <v>0.7142857142857143</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="5">
         <v>1.3571428571428572</v>
       </c>
-      <c r="J58" s="2">
-        <v>1</v>
-      </c>
-      <c r="K58" s="2">
-        <v>1</v>
-      </c>
-      <c r="L58" s="2">
-        <v>1</v>
-      </c>
-      <c r="M58" s="2">
-        <v>1</v>
-      </c>
-      <c r="N58" s="2">
-        <v>1</v>
-      </c>
-      <c r="O58" s="2">
-        <v>1</v>
-      </c>
-      <c r="P58" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>1</v>
-      </c>
-      <c r="R58" s="2">
-        <v>1</v>
-      </c>
-      <c r="S58" s="2">
-        <v>1</v>
-      </c>
-      <c r="T58" s="2">
-        <v>1</v>
-      </c>
-      <c r="U58" s="2">
-        <v>1</v>
-      </c>
-      <c r="V58" s="2">
-        <v>1</v>
-      </c>
-      <c r="W58" s="2">
-        <v>1</v>
-      </c>
-      <c r="X58" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y58" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS58" s="2">
+      <c r="J58" s="4">
+        <v>1</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1</v>
+      </c>
+      <c r="L58" s="4">
+        <v>1</v>
+      </c>
+      <c r="M58" s="4">
+        <v>1</v>
+      </c>
+      <c r="N58" s="4">
+        <v>1</v>
+      </c>
+      <c r="O58" s="4">
+        <v>1</v>
+      </c>
+      <c r="P58" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>1</v>
+      </c>
+      <c r="R58" s="4">
+        <v>1</v>
+      </c>
+      <c r="S58" s="4">
+        <v>1</v>
+      </c>
+      <c r="T58" s="4">
+        <v>1</v>
+      </c>
+      <c r="U58" s="4">
+        <v>1</v>
+      </c>
+      <c r="V58" s="4">
+        <v>1</v>
+      </c>
+      <c r="W58" s="4">
+        <v>1</v>
+      </c>
+      <c r="X58" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS58" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4">
         <v>2</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4">
         <v>0.5</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="4">
         <v>1.36</v>
       </c>
-      <c r="J59" s="2">
-        <v>1</v>
-      </c>
-      <c r="K59" s="2">
-        <v>1</v>
-      </c>
-      <c r="L59" s="2">
-        <v>1</v>
-      </c>
-      <c r="M59" s="2">
-        <v>1</v>
-      </c>
-      <c r="N59" s="2">
-        <v>1</v>
-      </c>
-      <c r="O59" s="2">
-        <v>1</v>
-      </c>
-      <c r="P59" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>1</v>
-      </c>
-      <c r="R59" s="2">
-        <v>1</v>
-      </c>
-      <c r="S59" s="2">
-        <v>1</v>
-      </c>
-      <c r="T59" s="2">
-        <v>1</v>
-      </c>
-      <c r="U59" s="2">
-        <v>1</v>
-      </c>
-      <c r="V59" s="2">
-        <v>1</v>
-      </c>
-      <c r="W59" s="2">
-        <v>1</v>
-      </c>
-      <c r="X59" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS59" s="2">
+      <c r="J59" s="4">
+        <v>1</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1</v>
+      </c>
+      <c r="L59" s="4">
+        <v>1</v>
+      </c>
+      <c r="M59" s="4">
+        <v>1</v>
+      </c>
+      <c r="N59" s="4">
+        <v>1</v>
+      </c>
+      <c r="O59" s="4">
+        <v>1</v>
+      </c>
+      <c r="P59" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>1</v>
+      </c>
+      <c r="R59" s="4">
+        <v>1</v>
+      </c>
+      <c r="S59" s="4">
+        <v>1</v>
+      </c>
+      <c r="T59" s="4">
+        <v>1</v>
+      </c>
+      <c r="U59" s="4">
+        <v>1</v>
+      </c>
+      <c r="V59" s="4">
+        <v>1</v>
+      </c>
+      <c r="W59" s="4">
+        <v>1</v>
+      </c>
+      <c r="X59" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS59" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4">
         <v>2</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2">
+      <c r="F60" s="4"/>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4">
         <v>0.7</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J60" s="2">
-        <v>1</v>
-      </c>
-      <c r="K60" s="2">
-        <v>1</v>
-      </c>
-      <c r="L60" s="2">
-        <v>1</v>
-      </c>
-      <c r="M60" s="2">
-        <v>1</v>
-      </c>
-      <c r="N60" s="2">
-        <v>1</v>
-      </c>
-      <c r="O60" s="2">
-        <v>1</v>
-      </c>
-      <c r="P60" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>1</v>
-      </c>
-      <c r="R60" s="2">
-        <v>1</v>
-      </c>
-      <c r="S60" s="2">
-        <v>1</v>
-      </c>
-      <c r="T60" s="2">
-        <v>1</v>
-      </c>
-      <c r="U60" s="2">
-        <v>1</v>
-      </c>
-      <c r="V60" s="2">
-        <v>1</v>
-      </c>
-      <c r="W60" s="2">
-        <v>1</v>
-      </c>
-      <c r="X60" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS60" s="2">
+      <c r="J60" s="4">
+        <v>1</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1</v>
+      </c>
+      <c r="L60" s="4">
+        <v>1</v>
+      </c>
+      <c r="M60" s="4">
+        <v>1</v>
+      </c>
+      <c r="N60" s="4">
+        <v>1</v>
+      </c>
+      <c r="O60" s="4">
+        <v>1</v>
+      </c>
+      <c r="P60" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>1</v>
+      </c>
+      <c r="R60" s="4">
+        <v>1</v>
+      </c>
+      <c r="S60" s="4">
+        <v>1</v>
+      </c>
+      <c r="T60" s="4">
+        <v>1</v>
+      </c>
+      <c r="U60" s="4">
+        <v>1</v>
+      </c>
+      <c r="V60" s="4">
+        <v>1</v>
+      </c>
+      <c r="W60" s="4">
+        <v>1</v>
+      </c>
+      <c r="X60" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS60" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="A61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4">
         <v>2</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="F61" s="4"/>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61" s="6">
         <v>0.33333333333333337</v>
       </c>
-      <c r="I61" s="2">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2">
-        <v>1</v>
-      </c>
-      <c r="K61" s="2">
-        <v>1</v>
-      </c>
-      <c r="L61" s="2">
-        <v>1</v>
-      </c>
-      <c r="M61" s="2">
-        <v>1</v>
-      </c>
-      <c r="N61" s="2">
-        <v>1</v>
-      </c>
-      <c r="O61" s="2">
-        <v>1</v>
-      </c>
-      <c r="P61" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>1</v>
-      </c>
-      <c r="R61" s="2">
-        <v>1</v>
-      </c>
-      <c r="S61" s="2">
-        <v>1</v>
-      </c>
-      <c r="T61" s="2">
-        <v>1</v>
-      </c>
-      <c r="U61" s="2">
-        <v>1</v>
-      </c>
-      <c r="V61" s="2">
-        <v>1</v>
-      </c>
-      <c r="W61" s="2">
-        <v>1</v>
-      </c>
-      <c r="X61" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y61" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS61" s="2">
+      <c r="I61" s="4">
+        <v>1</v>
+      </c>
+      <c r="J61" s="4">
+        <v>1</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1</v>
+      </c>
+      <c r="L61" s="4">
+        <v>1</v>
+      </c>
+      <c r="M61" s="4">
+        <v>1</v>
+      </c>
+      <c r="N61" s="4">
+        <v>1</v>
+      </c>
+      <c r="O61" s="4">
+        <v>1</v>
+      </c>
+      <c r="P61" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>1</v>
+      </c>
+      <c r="R61" s="4">
+        <v>1</v>
+      </c>
+      <c r="S61" s="4">
+        <v>1</v>
+      </c>
+      <c r="T61" s="4">
+        <v>1</v>
+      </c>
+      <c r="U61" s="4">
+        <v>1</v>
+      </c>
+      <c r="V61" s="4">
+        <v>1</v>
+      </c>
+      <c r="W61" s="4">
+        <v>1</v>
+      </c>
+      <c r="X61" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS61" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="A62" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4">
         <v>2</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H62" s="2">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4">
         <v>0.65</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="4">
         <v>1.35</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="4">
         <v>2949497.0159999998</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="4">
         <v>2949497.0159999998</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L62" s="4">
         <v>2949497.0159999998</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="4">
         <v>2949497.0159999998</v>
       </c>
-      <c r="N62" s="2">
+      <c r="N62" s="4">
         <v>2949497.0159999998</v>
       </c>
-      <c r="O62" s="2">
+      <c r="O62" s="4">
         <v>2882114.0010000002</v>
       </c>
-      <c r="P62" s="2">
+      <c r="P62" s="4">
         <v>2930282.6320000002</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="Q62" s="4">
         <v>2935616.1860000002</v>
       </c>
-      <c r="R62" s="2">
+      <c r="R62" s="4">
         <v>2939896.0109999999</v>
       </c>
-      <c r="S62" s="2">
+      <c r="S62" s="4">
         <v>2992902.0729999999</v>
       </c>
-      <c r="T62" s="2">
+      <c r="T62" s="4">
         <v>3064530.6830000002</v>
       </c>
-      <c r="U62" s="2">
+      <c r="U62" s="4">
         <v>3128671.8130000001</v>
       </c>
-      <c r="V62" s="2">
+      <c r="V62" s="4">
         <v>3198069.449</v>
       </c>
-      <c r="W62" s="2">
+      <c r="W62" s="4">
         <v>3271283.398</v>
       </c>
-      <c r="X62" s="2">
+      <c r="X62" s="4">
         <v>3309137.852</v>
       </c>
-      <c r="Y62" s="2">
+      <c r="Y62" s="4">
         <v>3347430.3480000002</v>
       </c>
-      <c r="Z62" s="2">
+      <c r="Z62" s="4">
         <v>3386165.9550000001</v>
       </c>
-      <c r="AA62" s="2">
+      <c r="AA62" s="4">
         <v>3425349.801</v>
       </c>
-      <c r="AB62" s="2">
+      <c r="AB62" s="4">
         <v>3464987.0720000002</v>
       </c>
-      <c r="AC62" s="2">
+      <c r="AC62" s="4">
         <v>3505083.0159999998</v>
       </c>
-      <c r="AD62" s="2">
+      <c r="AD62" s="4">
         <v>3545642.9389999998</v>
       </c>
-      <c r="AE62" s="2">
+      <c r="AE62" s="4">
         <v>3586672.2119999998</v>
       </c>
-      <c r="AF62" s="2">
+      <c r="AF62" s="4">
         <v>3628176.2650000001</v>
       </c>
-      <c r="AG62" s="2">
+      <c r="AG62" s="4">
         <v>3670160.5920000002</v>
       </c>
-      <c r="AH62" s="2">
+      <c r="AH62" s="4">
         <v>3712630.7510000002</v>
       </c>
-      <c r="AI62" s="2">
+      <c r="AI62" s="4">
         <v>3755592.3640000001</v>
       </c>
-      <c r="AJ62" s="2">
+      <c r="AJ62" s="4">
         <v>3799051.1179999998</v>
       </c>
-      <c r="AK62" s="2">
+      <c r="AK62" s="4">
         <v>3843012.7650000001</v>
       </c>
-      <c r="AL62" s="2">
+      <c r="AL62" s="4">
         <v>3887483.125</v>
       </c>
-      <c r="AM62" s="2">
+      <c r="AM62" s="4">
         <v>3932468.085</v>
       </c>
-      <c r="AN62" s="2">
+      <c r="AN62" s="4">
         <v>3977973.5989999999</v>
       </c>
-      <c r="AO62" s="2">
+      <c r="AO62" s="4">
         <v>4024005.6910000001</v>
       </c>
-      <c r="AP62" s="2">
+      <c r="AP62" s="4">
         <v>4070570.4550000001</v>
       </c>
-      <c r="AQ62" s="2">
+      <c r="AQ62" s="4">
         <v>4117674.0550000002</v>
       </c>
-      <c r="AR62" s="2">
+      <c r="AR62" s="4">
         <v>4165322.7250000001</v>
       </c>
-      <c r="AS62" s="2">
+      <c r="AS62" s="4">
         <v>4213522.7740000002</v>
       </c>
     </row>
     <row r="63" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="A63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4">
         <v>2</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H63" s="2">
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4">
         <v>0.65</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="4">
         <v>1.35</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="4">
         <v>830763.7034</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="4">
         <v>830763.7034</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L63" s="4">
         <v>830763.7034</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63" s="4">
         <v>830763.7034</v>
       </c>
-      <c r="N63" s="2">
+      <c r="N63" s="4">
         <v>830763.7034</v>
       </c>
-      <c r="O63" s="2">
+      <c r="O63" s="4">
         <v>802806.64069999999</v>
       </c>
-      <c r="P63" s="2">
+      <c r="P63" s="4">
         <v>896354.79709999997</v>
       </c>
-      <c r="Q63" s="2">
+      <c r="Q63" s="4">
         <v>952306.27639999997</v>
       </c>
-      <c r="R63" s="2">
+      <c r="R63" s="4">
         <v>965025.56279999996</v>
       </c>
-      <c r="S63" s="2">
+      <c r="S63" s="4">
         <v>976832.66020000004</v>
       </c>
-      <c r="T63" s="2">
+      <c r="T63" s="4">
         <v>986067.30119999999</v>
       </c>
-      <c r="U63" s="2">
+      <c r="U63" s="4">
         <v>981086.13569999998</v>
       </c>
-      <c r="V63" s="2">
+      <c r="V63" s="4">
         <v>983736.63040000002</v>
       </c>
-      <c r="W63" s="2">
+      <c r="W63" s="4">
         <v>990223.44819999998</v>
       </c>
-      <c r="X63" s="2">
+      <c r="X63" s="4">
         <v>1009731.862</v>
       </c>
-      <c r="Y63" s="2">
+      <c r="Y63" s="4">
         <v>1029624.612</v>
       </c>
-      <c r="Z63" s="2">
+      <c r="Z63" s="4">
         <v>1049909.27</v>
       </c>
-      <c r="AA63" s="2">
+      <c r="AA63" s="4">
         <v>1070593.5560000001</v>
       </c>
-      <c r="AB63" s="2">
+      <c r="AB63" s="4">
         <v>1091685.3430000001</v>
       </c>
-      <c r="AC63" s="2">
+      <c r="AC63" s="4">
         <v>1113192.6610000001</v>
       </c>
-      <c r="AD63" s="2">
+      <c r="AD63" s="4">
         <v>1135123.6939999999</v>
       </c>
-      <c r="AE63" s="2">
+      <c r="AE63" s="4">
         <v>1157486.791</v>
       </c>
-      <c r="AF63" s="2">
+      <c r="AF63" s="4">
         <v>1180290.4650000001</v>
       </c>
-      <c r="AG63" s="2">
+      <c r="AG63" s="4">
         <v>1203543.3929999999</v>
       </c>
-      <c r="AH63" s="2">
+      <c r="AH63" s="4">
         <v>1227254.429</v>
       </c>
-      <c r="AI63" s="2">
+      <c r="AI63" s="4">
         <v>1251432.5959999999</v>
       </c>
-      <c r="AJ63" s="2">
+      <c r="AJ63" s="4">
         <v>1276087.0970000001</v>
       </c>
-      <c r="AK63" s="2">
+      <c r="AK63" s="4">
         <v>1301227.317</v>
       </c>
-      <c r="AL63" s="2">
+      <c r="AL63" s="4">
         <v>1326862.8259999999</v>
       </c>
-      <c r="AM63" s="2">
+      <c r="AM63" s="4">
         <v>1353003.38</v>
       </c>
-      <c r="AN63" s="2">
+      <c r="AN63" s="4">
         <v>1379658.93</v>
       </c>
-      <c r="AO63" s="2">
+      <c r="AO63" s="4">
         <v>1406839.621</v>
       </c>
-      <c r="AP63" s="2">
+      <c r="AP63" s="4">
         <v>1434555.8</v>
       </c>
-      <c r="AQ63" s="2">
+      <c r="AQ63" s="4">
         <v>1462818.0160000001</v>
       </c>
-      <c r="AR63" s="2">
+      <c r="AR63" s="4">
         <v>1491637.0260000001</v>
       </c>
-      <c r="AS63" s="2">
+      <c r="AS63" s="4">
         <v>1521023.801</v>
       </c>
     </row>
     <row r="64" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
+      <c r="B64" s="4">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4">
         <v>2</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H64" s="2">
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4">
         <v>0.65</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="4">
         <v>1.35</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="4">
         <v>3149.52</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="4">
         <v>3149.52</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64" s="4">
         <v>3149.52</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64" s="4">
         <v>3149.52</v>
       </c>
-      <c r="N64" s="2">
+      <c r="N64" s="4">
         <v>3149.52</v>
       </c>
-      <c r="O64" s="2">
+      <c r="O64" s="4">
         <v>3138.41</v>
       </c>
-      <c r="P64" s="2">
+      <c r="P64" s="4">
         <v>3156.34</v>
       </c>
-      <c r="Q64" s="2">
+      <c r="Q64" s="4">
         <v>3155.35</v>
       </c>
-      <c r="R64" s="2">
+      <c r="R64" s="4">
         <v>3162.94</v>
       </c>
-      <c r="S64" s="2">
+      <c r="S64" s="4">
         <v>3167.34</v>
       </c>
-      <c r="T64" s="2">
+      <c r="T64" s="4">
         <v>3176.91</v>
       </c>
-      <c r="U64" s="2">
+      <c r="U64" s="4">
         <v>3184.39</v>
       </c>
-      <c r="V64" s="2">
+      <c r="V64" s="4">
         <v>3194.51</v>
       </c>
-      <c r="W64" s="2">
+      <c r="W64" s="4">
         <v>3201.44</v>
       </c>
-      <c r="X64" s="2">
+      <c r="X64" s="4">
         <v>3207.2614659999999</v>
       </c>
-      <c r="Y64" s="2">
+      <c r="Y64" s="4">
         <v>3213.0935180000001</v>
       </c>
-      <c r="Z64" s="2">
+      <c r="Z64" s="4">
         <v>3218.9361760000002</v>
       </c>
-      <c r="AA64" s="2">
+      <c r="AA64" s="4">
         <v>3224.7894569999999</v>
       </c>
-      <c r="AB64" s="2">
+      <c r="AB64" s="4">
         <v>3230.653382</v>
       </c>
-      <c r="AC64" s="2">
+      <c r="AC64" s="4">
         <v>3236.5279690000002</v>
       </c>
-      <c r="AD64" s="2">
+      <c r="AD64" s="4">
         <v>3242.413239</v>
       </c>
-      <c r="AE64" s="2">
+      <c r="AE64" s="4">
         <v>3248.3092109999998</v>
       </c>
-      <c r="AF64" s="2">
+      <c r="AF64" s="4">
         <v>3254.2159040000001</v>
       </c>
-      <c r="AG64" s="2">
+      <c r="AG64" s="4">
         <v>3260.1333370000002</v>
       </c>
-      <c r="AH64" s="2">
+      <c r="AH64" s="4">
         <v>3266.0615309999998</v>
       </c>
-      <c r="AI64" s="2">
+      <c r="AI64" s="4">
         <v>3272.000505</v>
       </c>
-      <c r="AJ64" s="2">
+      <c r="AJ64" s="4">
         <v>3277.9502779999998</v>
       </c>
-      <c r="AK64" s="2">
+      <c r="AK64" s="4">
         <v>3283.9108700000002</v>
       </c>
-      <c r="AL64" s="2">
+      <c r="AL64" s="4">
         <v>3289.8823000000002</v>
       </c>
-      <c r="AM64" s="2">
+      <c r="AM64" s="4">
         <v>3295.8645889999998</v>
       </c>
-      <c r="AN64" s="2">
+      <c r="AN64" s="4">
         <v>3301.8577559999999</v>
       </c>
-      <c r="AO64" s="2">
+      <c r="AO64" s="4">
         <v>3307.861821</v>
       </c>
-      <c r="AP64" s="2">
+      <c r="AP64" s="4">
         <v>3313.876804</v>
       </c>
-      <c r="AQ64" s="2">
+      <c r="AQ64" s="4">
         <v>3319.902724</v>
       </c>
-      <c r="AR64" s="2">
+      <c r="AR64" s="4">
         <v>3325.9396019999999</v>
       </c>
-      <c r="AS64" s="2">
+      <c r="AS64" s="4">
         <v>3331.9874570000002</v>
       </c>
     </row>
     <row r="65" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="A65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4">
         <v>2</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H65" s="2">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="4">
         <v>1.45</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="4">
         <v>121016.9599</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="4">
         <v>118430.7775</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L65" s="4">
         <v>116918.7447</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M65" s="4">
         <v>113378.73789999999</v>
       </c>
-      <c r="N65" s="2">
+      <c r="N65" s="4">
         <v>116282.6213</v>
       </c>
-      <c r="O65" s="2">
+      <c r="O65" s="4">
         <v>120301.2629</v>
       </c>
-      <c r="P65" s="2">
+      <c r="P65" s="4">
         <v>122988.64109999999</v>
       </c>
-      <c r="Q65" s="2">
+      <c r="Q65" s="4">
         <v>126940.6444</v>
       </c>
-      <c r="R65" s="2">
+      <c r="R65" s="4">
         <v>130517.3986</v>
       </c>
-      <c r="S65" s="2">
+      <c r="S65" s="4">
         <v>134183.38010000001</v>
       </c>
-      <c r="T65" s="2">
+      <c r="T65" s="4">
         <v>137664.9455</v>
       </c>
-      <c r="U65" s="2">
+      <c r="U65" s="4">
         <v>141435.25320000001</v>
       </c>
-      <c r="V65" s="2">
+      <c r="V65" s="4">
         <v>144681.77600000001</v>
       </c>
-      <c r="W65" s="2">
+      <c r="W65" s="4">
         <v>147451.0361</v>
       </c>
-      <c r="X65" s="2">
+      <c r="X65" s="4">
         <v>151393.43830000001</v>
       </c>
-      <c r="Y65" s="2">
+      <c r="Y65" s="4">
         <v>155441.24859999999</v>
       </c>
-      <c r="Z65" s="2">
+      <c r="Z65" s="4">
         <v>159597.28539999999</v>
       </c>
-      <c r="AA65" s="2">
+      <c r="AA65" s="4">
         <v>163864.44219999999</v>
       </c>
-      <c r="AB65" s="2">
+      <c r="AB65" s="4">
         <v>168245.69010000001</v>
       </c>
-      <c r="AC65" s="2">
+      <c r="AC65" s="4">
         <v>172744.0796</v>
       </c>
-      <c r="AD65" s="2">
+      <c r="AD65" s="4">
         <v>177362.7426</v>
       </c>
-      <c r="AE65" s="2">
+      <c r="AE65" s="4">
         <v>182104.89490000001</v>
       </c>
-      <c r="AF65" s="2">
+      <c r="AF65" s="4">
         <v>186973.8383</v>
       </c>
-      <c r="AG65" s="2">
+      <c r="AG65" s="4">
         <v>191972.9627</v>
       </c>
-      <c r="AH65" s="2">
+      <c r="AH65" s="4">
         <v>197105.74890000001</v>
       </c>
-      <c r="AI65" s="2">
+      <c r="AI65" s="4">
         <v>202375.77050000001</v>
       </c>
-      <c r="AJ65" s="2">
+      <c r="AJ65" s="4">
         <v>207786.69680000001</v>
       </c>
-      <c r="AK65" s="2">
+      <c r="AK65" s="4">
         <v>213342.29519999999</v>
       </c>
-      <c r="AL65" s="2">
+      <c r="AL65" s="4">
         <v>219046.43369999999</v>
       </c>
-      <c r="AM65" s="2">
+      <c r="AM65" s="4">
         <v>224903.084</v>
       </c>
-      <c r="AN65" s="2">
+      <c r="AN65" s="4">
         <v>230916.32370000001</v>
       </c>
-      <c r="AO65" s="2">
+      <c r="AO65" s="4">
         <v>237090.3395</v>
       </c>
-      <c r="AP65" s="2">
+      <c r="AP65" s="4">
         <v>243429.4302</v>
       </c>
-      <c r="AQ65" s="2">
+      <c r="AQ65" s="4">
         <v>249938.0092</v>
       </c>
-      <c r="AR65" s="2">
+      <c r="AR65" s="4">
         <v>256620.6084</v>
       </c>
-      <c r="AS65" s="2">
+      <c r="AS65" s="4">
         <v>263481.88030000002</v>
       </c>
     </row>
     <row r="66" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="A66" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4">
         <v>2</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="2">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4">
         <v>0.75</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="4">
         <v>1.25</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="4">
         <v>1170910.395</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="4">
         <v>1170910.395</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L66" s="4">
         <v>1170910.395</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="4">
         <v>1170910.395</v>
       </c>
-      <c r="N66" s="2">
+      <c r="N66" s="4">
         <v>1170910.395</v>
       </c>
-      <c r="O66" s="2">
+      <c r="O66" s="4">
         <v>1209180.693</v>
       </c>
-      <c r="P66" s="2">
+      <c r="P66" s="4">
         <v>1253332.4099999999</v>
       </c>
-      <c r="Q66" s="2">
+      <c r="Q66" s="4">
         <v>1277056.4879999999</v>
       </c>
-      <c r="R66" s="2">
+      <c r="R66" s="4">
         <v>1295766.564</v>
       </c>
-      <c r="S66" s="2">
+      <c r="S66" s="4">
         <v>1312038.8940000001</v>
       </c>
-      <c r="T66" s="2">
+      <c r="T66" s="4">
         <v>1330783.1969999999</v>
       </c>
-      <c r="U66" s="2">
+      <c r="U66" s="4">
         <v>1351197.8740000001</v>
       </c>
-      <c r="V66" s="2">
+      <c r="V66" s="4">
         <v>1373852.827</v>
       </c>
-      <c r="W66" s="2">
+      <c r="W66" s="4">
         <v>1401578.027</v>
       </c>
-      <c r="X66" s="2">
+      <c r="X66" s="4">
         <v>1429862.74</v>
       </c>
-      <c r="Y66" s="2">
+      <c r="Y66" s="4">
         <v>1458718.2549999999</v>
       </c>
-      <c r="Z66" s="2">
+      <c r="Z66" s="4">
         <v>1488156.0930000001</v>
       </c>
-      <c r="AA66" s="2">
+      <c r="AA66" s="4">
         <v>1518188.004</v>
       </c>
-      <c r="AB66" s="2">
+      <c r="AB66" s="4">
         <v>1548825.9779999999</v>
       </c>
-      <c r="AC66" s="2">
+      <c r="AC66" s="4">
         <v>1580082.2450000001</v>
       </c>
-      <c r="AD66" s="2">
+      <c r="AD66" s="4">
         <v>1611969.2830000001</v>
       </c>
-      <c r="AE66" s="2">
+      <c r="AE66" s="4">
         <v>1644499.821</v>
       </c>
-      <c r="AF66" s="2">
+      <c r="AF66" s="4">
         <v>1677686.845</v>
       </c>
-      <c r="AG66" s="2">
+      <c r="AG66" s="4">
         <v>1711543.605</v>
       </c>
-      <c r="AH66" s="2">
+      <c r="AH66" s="4">
         <v>1746083.6140000001</v>
       </c>
-      <c r="AI66" s="2">
+      <c r="AI66" s="4">
         <v>1781320.6629999999</v>
       </c>
-      <c r="AJ66" s="2">
+      <c r="AJ66" s="4">
         <v>1817268.8160000001</v>
       </c>
-      <c r="AK66" s="2">
+      <c r="AK66" s="4">
         <v>1853942.426</v>
       </c>
-      <c r="AL66" s="2">
+      <c r="AL66" s="4">
         <v>1891356.132</v>
       </c>
-      <c r="AM66" s="2">
+      <c r="AM66" s="4">
         <v>1929524.87</v>
       </c>
-      <c r="AN66" s="2">
+      <c r="AN66" s="4">
         <v>1968463.8759999999</v>
       </c>
-      <c r="AO66" s="2">
+      <c r="AO66" s="4">
         <v>2008188.696</v>
       </c>
-      <c r="AP66" s="2">
+      <c r="AP66" s="4">
         <v>2048715.1869999999</v>
       </c>
-      <c r="AQ66" s="2">
+      <c r="AQ66" s="4">
         <v>2090059.5279999999</v>
       </c>
-      <c r="AR66" s="2">
+      <c r="AR66" s="4">
         <v>2132238.2230000002</v>
       </c>
-      <c r="AS66" s="2">
+      <c r="AS66" s="4">
         <v>2175268.111</v>
       </c>
     </row>
     <row r="67" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="A67" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
+      <c r="C67" s="4">
         <v>2</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H67" s="2">
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4">
         <v>0.8</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="4">
         <v>1.2</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="4">
         <v>242.21564459999999</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="4">
         <v>246.3601706</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67" s="4">
         <v>249.28834000000001</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67" s="4">
         <v>259.13353649999999</v>
       </c>
-      <c r="N67" s="2">
+      <c r="N67" s="4">
         <v>266.9075426</v>
       </c>
-      <c r="O67" s="2">
+      <c r="O67" s="4">
         <v>275.44858399999998</v>
       </c>
-      <c r="P67" s="2">
+      <c r="P67" s="4">
         <v>284.53838719999999</v>
       </c>
-      <c r="Q67" s="2">
+      <c r="Q67" s="4">
         <v>293.92815400000001</v>
       </c>
-      <c r="R67" s="2">
+      <c r="R67" s="4">
         <v>303.9217112</v>
       </c>
-      <c r="S67" s="2">
+      <c r="S67" s="4">
         <v>314.25504940000002</v>
       </c>
-      <c r="T67" s="2">
+      <c r="T67" s="4">
         <v>324.7238701</v>
       </c>
-      <c r="U67" s="2">
+      <c r="U67" s="4">
         <v>335.3229043</v>
       </c>
-      <c r="V67" s="2">
+      <c r="V67" s="4">
         <v>346.04678250000001</v>
       </c>
-      <c r="W67" s="2">
+      <c r="W67" s="4">
         <v>356.8900471</v>
       </c>
-      <c r="X67" s="2">
+      <c r="X67" s="4">
         <v>367.8471629</v>
       </c>
-      <c r="Y67" s="2">
+      <c r="Y67" s="4">
         <v>378.91252950000001</v>
       </c>
-      <c r="Z67" s="2">
+      <c r="Z67" s="4">
         <v>390.08049190000003</v>
       </c>
-      <c r="AA67" s="2">
+      <c r="AA67" s="4">
         <v>401.34535169999998</v>
       </c>
-      <c r="AB67" s="2">
+      <c r="AB67" s="4">
         <v>412.70137749999998</v>
       </c>
-      <c r="AC67" s="2">
+      <c r="AC67" s="4">
         <v>424.14281620000003</v>
       </c>
-      <c r="AD67" s="2">
+      <c r="AD67" s="4">
         <v>435.66390200000001</v>
       </c>
-      <c r="AE67" s="2">
+      <c r="AE67" s="4">
         <v>447.25886730000002</v>
       </c>
-      <c r="AF67" s="2">
+      <c r="AF67" s="4">
         <v>458.9219516</v>
       </c>
-      <c r="AG67" s="2">
+      <c r="AG67" s="4">
         <v>470.6474111</v>
       </c>
-      <c r="AH67" s="2">
+      <c r="AH67" s="4">
         <v>482.42952689999998</v>
       </c>
-      <c r="AI67" s="2">
+      <c r="AI67" s="4">
         <v>494.26261449999998</v>
       </c>
-      <c r="AJ67" s="2">
+      <c r="AJ67" s="4">
         <v>506.14103069999999</v>
       </c>
-      <c r="AK67" s="2">
+      <c r="AK67" s="4">
         <v>518.05918220000001</v>
       </c>
-      <c r="AL67" s="2">
+      <c r="AL67" s="4">
         <v>530.01153239999996</v>
       </c>
-      <c r="AM67" s="2">
+      <c r="AM67" s="4">
         <v>541.99260879999997</v>
       </c>
-      <c r="AN67" s="2">
+      <c r="AN67" s="4">
         <v>553.9970088</v>
       </c>
-      <c r="AO67" s="2">
+      <c r="AO67" s="4">
         <v>566.01940669999999</v>
       </c>
-      <c r="AP67" s="2">
+      <c r="AP67" s="4">
         <v>578.05455859999995</v>
       </c>
-      <c r="AQ67" s="2">
+      <c r="AQ67" s="4">
         <v>590.09730850000005</v>
       </c>
-      <c r="AR67" s="2">
+      <c r="AR67" s="4">
         <v>602.14259259999994</v>
       </c>
-      <c r="AS67" s="2">
+      <c r="AS67" s="4">
         <v>614.18544450000002</v>
       </c>
     </row>
     <row r="68" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="A68" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4">
         <v>2</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H68" s="2">
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4">
         <v>0.8</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="4">
         <v>1.2</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="4">
         <v>17971423</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="4">
         <v>18167147</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="4">
         <v>18419192</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68" s="4">
         <v>18751405</v>
       </c>
-      <c r="N68" s="2">
+      <c r="N68" s="4">
         <v>19107216</v>
       </c>
-      <c r="O68" s="2">
+      <c r="O68" s="4">
         <v>19458310</v>
       </c>
-      <c r="P68" s="2">
+      <c r="P68" s="4">
         <v>19678363</v>
       </c>
-      <c r="Q68" s="2">
+      <c r="Q68" s="4">
         <v>19828563</v>
       </c>
-      <c r="R68" s="2">
+      <c r="R68" s="4">
         <v>19960889</v>
       </c>
-      <c r="S68" s="2">
+      <c r="S68" s="4">
         <v>20086377</v>
       </c>
-      <c r="T68" s="2">
+      <c r="T68" s="4">
         <v>20206953</v>
       </c>
-      <c r="U68" s="2">
+      <c r="U68" s="4">
         <v>20322807</v>
       </c>
-      <c r="V68" s="2">
+      <c r="V68" s="4">
         <v>20433791</v>
       </c>
-      <c r="W68" s="2">
+      <c r="W68" s="4">
         <v>20539666</v>
       </c>
-      <c r="X68" s="2">
+      <c r="X68" s="4">
         <v>20640230</v>
       </c>
-      <c r="Y68" s="2">
+      <c r="Y68" s="4">
         <v>20735289</v>
       </c>
-      <c r="Z68" s="2">
+      <c r="Z68" s="4">
         <v>20826397</v>
       </c>
-      <c r="AA68" s="2">
+      <c r="AA68" s="4">
         <v>20912278</v>
       </c>
-      <c r="AB68" s="2">
+      <c r="AB68" s="4">
         <v>20992831</v>
       </c>
-      <c r="AC68" s="2">
+      <c r="AC68" s="4">
         <v>21067996</v>
       </c>
-      <c r="AD68" s="2">
+      <c r="AD68" s="4">
         <v>21137769</v>
       </c>
-      <c r="AE68" s="2">
+      <c r="AE68" s="4">
         <v>21202223</v>
       </c>
-      <c r="AF68" s="2">
+      <c r="AF68" s="4">
         <v>21261462</v>
       </c>
-      <c r="AG68" s="2">
+      <c r="AG68" s="4">
         <v>21315630</v>
       </c>
-      <c r="AH68" s="2">
+      <c r="AH68" s="4">
         <v>21364889</v>
       </c>
-      <c r="AI68" s="2">
+      <c r="AI68" s="4">
         <v>21409418</v>
       </c>
-      <c r="AJ68" s="2">
+      <c r="AJ68" s="4">
         <v>21449428</v>
       </c>
-      <c r="AK68" s="2">
+      <c r="AK68" s="4">
         <v>21485105</v>
       </c>
-      <c r="AL68" s="2">
+      <c r="AL68" s="4">
         <v>21516611</v>
       </c>
-      <c r="AM68" s="2">
+      <c r="AM68" s="4">
         <v>21544064</v>
       </c>
-      <c r="AN68" s="2">
+      <c r="AN68" s="4">
         <v>21567513</v>
       </c>
-      <c r="AO68" s="2">
+      <c r="AO68" s="4">
         <v>21587015</v>
       </c>
-      <c r="AP68" s="2">
+      <c r="AP68" s="4">
         <v>21602589</v>
       </c>
-      <c r="AQ68" s="2">
+      <c r="AQ68" s="4">
         <v>21614271</v>
       </c>
-      <c r="AR68" s="2">
+      <c r="AR68" s="4">
         <v>21622101</v>
       </c>
-      <c r="AS68" s="2">
+      <c r="AS68" s="4">
         <v>21626079</v>
       </c>
     </row>
     <row r="69" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+      <c r="C69" s="4">
         <v>2</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H69" s="2">
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="4">
         <v>1.45</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="4">
         <v>291205.970209122</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="4">
         <v>307351.13955116202</v>
       </c>
-      <c r="L69" s="2">
+      <c r="L69" s="4">
         <v>294477.61412429903</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="4">
         <v>265757.30055999698</v>
       </c>
-      <c r="N69" s="2">
+      <c r="N69" s="4">
         <v>282829.84477040701</v>
       </c>
-      <c r="O69" s="2">
+      <c r="O69" s="4">
         <v>305864.40383529197</v>
       </c>
-      <c r="P69" s="2">
+      <c r="P69" s="4">
         <v>315842.738895952</v>
       </c>
-      <c r="Q69" s="2">
+      <c r="Q69" s="4">
         <v>329165.81692342099</v>
       </c>
-      <c r="R69" s="2">
+      <c r="R69" s="4">
         <v>337106.24121812999</v>
       </c>
-      <c r="S69" s="2">
+      <c r="S69" s="4">
         <v>347967.65153137402</v>
       </c>
-      <c r="T69" s="2">
+      <c r="T69" s="4">
         <v>358566.06820648798</v>
       </c>
-      <c r="U69" s="2">
+      <c r="U69" s="4">
         <v>369803.12784670899</v>
       </c>
-      <c r="V69" s="2">
+      <c r="V69" s="4">
         <v>380573.70521688799</v>
       </c>
-      <c r="W69" s="2">
+      <c r="W69" s="4">
         <v>389080.66299776698</v>
       </c>
-      <c r="X69" s="2">
+      <c r="X69" s="4">
         <v>403116.09419811954</v>
       </c>
-      <c r="Y69" s="2">
+      <c r="Y69" s="4">
         <v>417657.82999727182</v>
       </c>
-      <c r="Z69" s="2">
+      <c r="Z69" s="4">
         <v>432724.13448295346</v>
       </c>
-      <c r="AA69" s="2">
+      <c r="AA69" s="4">
         <v>448333.93058917235</v>
       </c>
-      <c r="AB69" s="2">
+      <c r="AB69" s="4">
         <v>464506.8238629871</v>
       </c>
-      <c r="AC69" s="2">
+      <c r="AC69" s="4">
         <v>481263.12708862609</v>
       </c>
-      <c r="AD69" s="2">
+      <c r="AD69" s="4">
         <v>498623.88579988002</v>
       </c>
-      <c r="AE69" s="2">
+      <c r="AE69" s="4">
         <v>516610.90471281129</v>
       </c>
-      <c r="AF69" s="2">
+      <c r="AF69" s="4">
         <v>535246.77511197876</v>
       </c>
-      <c r="AG69" s="2">
+      <c r="AG69" s="4">
         <v>554554.90322457498</v>
       </c>
-      <c r="AH69" s="2">
+      <c r="AH69" s="4">
         <v>574559.53961811215</v>
       </c>
-      <c r="AI69" s="2">
+      <c r="AI69" s="4">
         <v>595285.80965858069</v>
       </c>
-      <c r="AJ69" s="2">
+      <c r="AJ69" s="4">
         <v>616759.7450673345</v>
       </c>
-      <c r="AK69" s="2">
+      <c r="AK69" s="4">
         <v>639008.31661633798</v>
       </c>
-      <c r="AL69" s="2">
+      <c r="AL69" s="4">
         <v>662059.46800283901</v>
       </c>
-      <c r="AM69" s="2">
+      <c r="AM69" s="4">
         <v>685942.15094601363</v>
       </c>
-      <c r="AN69" s="2">
+      <c r="AN69" s="4">
         <v>710686.36154966382</v>
       </c>
-      <c r="AO69" s="2">
+      <c r="AO69" s="4">
         <v>736323.17797663808</v>
       </c>
-      <c r="AP69" s="2">
+      <c r="AP69" s="4">
         <v>762884.79948229319</v>
       </c>
-      <c r="AQ69" s="2">
+      <c r="AQ69" s="4">
         <v>790404.58685602329</v>
       </c>
-      <c r="AR69" s="2">
+      <c r="AR69" s="4">
         <v>818917.10432164825</v>
       </c>
-      <c r="AS69" s="2">
+      <c r="AS69" s="4">
         <v>848458.16294928908</v>
       </c>
     </row>
     <row r="70" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="A70" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4">
         <v>2</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2">
+      <c r="F70" s="4"/>
+      <c r="G70" s="4">
+        <v>1</v>
+      </c>
+      <c r="H70" s="4">
         <v>0.9</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J70" s="2">
-        <v>1</v>
-      </c>
-      <c r="K70" s="2">
-        <v>1</v>
-      </c>
-      <c r="L70" s="2">
-        <v>1</v>
-      </c>
-      <c r="M70" s="2">
-        <v>1</v>
-      </c>
-      <c r="N70" s="2">
-        <v>1</v>
-      </c>
-      <c r="O70" s="2">
-        <v>1</v>
-      </c>
-      <c r="P70" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="2">
-        <v>1</v>
-      </c>
-      <c r="R70" s="2">
-        <v>1</v>
-      </c>
-      <c r="S70" s="2">
-        <v>1</v>
-      </c>
-      <c r="T70" s="2">
-        <v>1</v>
-      </c>
-      <c r="U70" s="2">
-        <v>1</v>
-      </c>
-      <c r="V70" s="2">
-        <v>1</v>
-      </c>
-      <c r="W70" s="2">
-        <v>1</v>
-      </c>
-      <c r="X70" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y70" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS70" s="2">
+      <c r="J70" s="4">
+        <v>1</v>
+      </c>
+      <c r="K70" s="4">
+        <v>1</v>
+      </c>
+      <c r="L70" s="4">
+        <v>1</v>
+      </c>
+      <c r="M70" s="4">
+        <v>1</v>
+      </c>
+      <c r="N70" s="4">
+        <v>1</v>
+      </c>
+      <c r="O70" s="4">
+        <v>1</v>
+      </c>
+      <c r="P70" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>1</v>
+      </c>
+      <c r="R70" s="4">
+        <v>1</v>
+      </c>
+      <c r="S70" s="4">
+        <v>1</v>
+      </c>
+      <c r="T70" s="4">
+        <v>1</v>
+      </c>
+      <c r="U70" s="4">
+        <v>1</v>
+      </c>
+      <c r="V70" s="4">
+        <v>1</v>
+      </c>
+      <c r="W70" s="4">
+        <v>1</v>
+      </c>
+      <c r="X70" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS70" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="A71" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
+      <c r="B71" s="4">
+        <v>1</v>
+      </c>
+      <c r="C71" s="4">
         <v>2</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71" s="2">
+      <c r="F71" s="4"/>
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4">
         <v>0.9</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J71" s="2">
-        <v>1</v>
-      </c>
-      <c r="K71" s="2">
-        <v>1</v>
-      </c>
-      <c r="L71" s="2">
-        <v>1</v>
-      </c>
-      <c r="M71" s="2">
-        <v>1</v>
-      </c>
-      <c r="N71" s="2">
-        <v>1</v>
-      </c>
-      <c r="O71" s="2">
-        <v>1</v>
-      </c>
-      <c r="P71" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="2">
-        <v>1</v>
-      </c>
-      <c r="R71" s="2">
-        <v>1</v>
-      </c>
-      <c r="S71" s="2">
-        <v>1</v>
-      </c>
-      <c r="T71" s="2">
-        <v>1</v>
-      </c>
-      <c r="U71" s="2">
-        <v>1</v>
-      </c>
-      <c r="V71" s="2">
-        <v>1</v>
-      </c>
-      <c r="W71" s="2">
-        <v>1</v>
-      </c>
-      <c r="X71" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y71" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS71" s="2">
+      <c r="J71" s="4">
+        <v>1</v>
+      </c>
+      <c r="K71" s="4">
+        <v>1</v>
+      </c>
+      <c r="L71" s="4">
+        <v>1</v>
+      </c>
+      <c r="M71" s="4">
+        <v>1</v>
+      </c>
+      <c r="N71" s="4">
+        <v>1</v>
+      </c>
+      <c r="O71" s="4">
+        <v>1</v>
+      </c>
+      <c r="P71" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>1</v>
+      </c>
+      <c r="R71" s="4">
+        <v>1</v>
+      </c>
+      <c r="S71" s="4">
+        <v>1</v>
+      </c>
+      <c r="T71" s="4">
+        <v>1</v>
+      </c>
+      <c r="U71" s="4">
+        <v>1</v>
+      </c>
+      <c r="V71" s="4">
+        <v>1</v>
+      </c>
+      <c r="W71" s="4">
+        <v>1</v>
+      </c>
+      <c r="X71" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS71" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="A72" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4">
         <v>2</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" s="1">
+      <c r="F72" s="4"/>
+      <c r="G72" s="4">
+        <v>1</v>
+      </c>
+      <c r="H72" s="5">
         <v>0.7142857142857143</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="5">
         <v>1.3571428571428572</v>
       </c>
-      <c r="J72" s="2">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-      <c r="L72" s="2">
-        <v>1</v>
-      </c>
-      <c r="M72" s="2">
-        <v>1</v>
-      </c>
-      <c r="N72" s="2">
-        <v>1</v>
-      </c>
-      <c r="O72" s="2">
-        <v>1</v>
-      </c>
-      <c r="P72" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>1</v>
-      </c>
-      <c r="R72" s="2">
-        <v>1</v>
-      </c>
-      <c r="S72" s="2">
-        <v>1</v>
-      </c>
-      <c r="T72" s="2">
-        <v>1</v>
-      </c>
-      <c r="U72" s="2">
-        <v>1</v>
-      </c>
-      <c r="V72" s="2">
-        <v>1</v>
-      </c>
-      <c r="W72" s="2">
-        <v>1</v>
-      </c>
-      <c r="X72" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y72" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS72" s="2">
+      <c r="J72" s="4">
+        <v>1</v>
+      </c>
+      <c r="K72" s="4">
+        <v>1</v>
+      </c>
+      <c r="L72" s="4">
+        <v>1</v>
+      </c>
+      <c r="M72" s="4">
+        <v>1</v>
+      </c>
+      <c r="N72" s="4">
+        <v>1</v>
+      </c>
+      <c r="O72" s="4">
+        <v>1</v>
+      </c>
+      <c r="P72" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>1</v>
+      </c>
+      <c r="R72" s="4">
+        <v>1</v>
+      </c>
+      <c r="S72" s="4">
+        <v>1</v>
+      </c>
+      <c r="T72" s="4">
+        <v>1</v>
+      </c>
+      <c r="U72" s="4">
+        <v>1</v>
+      </c>
+      <c r="V72" s="4">
+        <v>1</v>
+      </c>
+      <c r="W72" s="4">
+        <v>1</v>
+      </c>
+      <c r="X72" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS72" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="A73" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4">
         <v>2</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2">
+      <c r="F73" s="4"/>
+      <c r="G73" s="4">
+        <v>1</v>
+      </c>
+      <c r="H73" s="4">
         <v>0.5</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="4">
         <v>1.36</v>
       </c>
-      <c r="J73" s="2">
-        <v>1</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1</v>
-      </c>
-      <c r="L73" s="2">
-        <v>1</v>
-      </c>
-      <c r="M73" s="2">
-        <v>1</v>
-      </c>
-      <c r="N73" s="2">
-        <v>1</v>
-      </c>
-      <c r="O73" s="2">
-        <v>1</v>
-      </c>
-      <c r="P73" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>1</v>
-      </c>
-      <c r="R73" s="2">
-        <v>1</v>
-      </c>
-      <c r="S73" s="2">
-        <v>1</v>
-      </c>
-      <c r="T73" s="2">
-        <v>1</v>
-      </c>
-      <c r="U73" s="2">
-        <v>1</v>
-      </c>
-      <c r="V73" s="2">
-        <v>1</v>
-      </c>
-      <c r="W73" s="2">
-        <v>1</v>
-      </c>
-      <c r="X73" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y73" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS73" s="2">
+      <c r="J73" s="4">
+        <v>1</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1</v>
+      </c>
+      <c r="L73" s="4">
+        <v>1</v>
+      </c>
+      <c r="M73" s="4">
+        <v>1</v>
+      </c>
+      <c r="N73" s="4">
+        <v>1</v>
+      </c>
+      <c r="O73" s="4">
+        <v>1</v>
+      </c>
+      <c r="P73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>1</v>
+      </c>
+      <c r="R73" s="4">
+        <v>1</v>
+      </c>
+      <c r="S73" s="4">
+        <v>1</v>
+      </c>
+      <c r="T73" s="4">
+        <v>1</v>
+      </c>
+      <c r="U73" s="4">
+        <v>1</v>
+      </c>
+      <c r="V73" s="4">
+        <v>1</v>
+      </c>
+      <c r="W73" s="4">
+        <v>1</v>
+      </c>
+      <c r="X73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS73" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="A74" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
+      <c r="C74" s="4">
         <v>2</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74" s="2">
+      <c r="F74" s="4"/>
+      <c r="G74" s="4">
+        <v>1</v>
+      </c>
+      <c r="H74" s="4">
         <v>0.7</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J74" s="2">
-        <v>1</v>
-      </c>
-      <c r="K74" s="2">
-        <v>1</v>
-      </c>
-      <c r="L74" s="2">
-        <v>1</v>
-      </c>
-      <c r="M74" s="2">
-        <v>1</v>
-      </c>
-      <c r="N74" s="2">
-        <v>1</v>
-      </c>
-      <c r="O74" s="2">
-        <v>1</v>
-      </c>
-      <c r="P74" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="2">
-        <v>1</v>
-      </c>
-      <c r="R74" s="2">
-        <v>1</v>
-      </c>
-      <c r="S74" s="2">
-        <v>1</v>
-      </c>
-      <c r="T74" s="2">
-        <v>1</v>
-      </c>
-      <c r="U74" s="2">
-        <v>1</v>
-      </c>
-      <c r="V74" s="2">
-        <v>1</v>
-      </c>
-      <c r="W74" s="2">
-        <v>1</v>
-      </c>
-      <c r="X74" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y74" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS74" s="2">
+      <c r="J74" s="4">
+        <v>1</v>
+      </c>
+      <c r="K74" s="4">
+        <v>1</v>
+      </c>
+      <c r="L74" s="4">
+        <v>1</v>
+      </c>
+      <c r="M74" s="4">
+        <v>1</v>
+      </c>
+      <c r="N74" s="4">
+        <v>1</v>
+      </c>
+      <c r="O74" s="4">
+        <v>1</v>
+      </c>
+      <c r="P74" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>1</v>
+      </c>
+      <c r="R74" s="4">
+        <v>1</v>
+      </c>
+      <c r="S74" s="4">
+        <v>1</v>
+      </c>
+      <c r="T74" s="4">
+        <v>1</v>
+      </c>
+      <c r="U74" s="4">
+        <v>1</v>
+      </c>
+      <c r="V74" s="4">
+        <v>1</v>
+      </c>
+      <c r="W74" s="4">
+        <v>1</v>
+      </c>
+      <c r="X74" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS74" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="A75" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
+      <c r="B75" s="4">
+        <v>0</v>
+      </c>
+      <c r="C75" s="4">
         <v>2</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75" s="3">
+      <c r="F75" s="4"/>
+      <c r="G75" s="4">
+        <v>1</v>
+      </c>
+      <c r="H75" s="6">
         <v>0.33333333333333337</v>
       </c>
-      <c r="I75" s="2">
-        <v>1</v>
-      </c>
-      <c r="J75" s="2">
-        <v>1</v>
-      </c>
-      <c r="K75" s="2">
-        <v>1</v>
-      </c>
-      <c r="L75" s="2">
-        <v>1</v>
-      </c>
-      <c r="M75" s="2">
-        <v>1</v>
-      </c>
-      <c r="N75" s="2">
-        <v>1</v>
-      </c>
-      <c r="O75" s="2">
-        <v>1</v>
-      </c>
-      <c r="P75" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="2">
-        <v>1</v>
-      </c>
-      <c r="R75" s="2">
-        <v>1</v>
-      </c>
-      <c r="S75" s="2">
-        <v>1</v>
-      </c>
-      <c r="T75" s="2">
-        <v>1</v>
-      </c>
-      <c r="U75" s="2">
-        <v>1</v>
-      </c>
-      <c r="V75" s="2">
-        <v>1</v>
-      </c>
-      <c r="W75" s="2">
-        <v>1</v>
-      </c>
-      <c r="X75" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y75" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS75" s="2">
+      <c r="I75" s="4">
+        <v>1</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1</v>
+      </c>
+      <c r="L75" s="4">
+        <v>1</v>
+      </c>
+      <c r="M75" s="4">
+        <v>1</v>
+      </c>
+      <c r="N75" s="4">
+        <v>1</v>
+      </c>
+      <c r="O75" s="4">
+        <v>1</v>
+      </c>
+      <c r="P75" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>1</v>
+      </c>
+      <c r="R75" s="4">
+        <v>1</v>
+      </c>
+      <c r="S75" s="4">
+        <v>1</v>
+      </c>
+      <c r="T75" s="4">
+        <v>1</v>
+      </c>
+      <c r="U75" s="4">
+        <v>1</v>
+      </c>
+      <c r="V75" s="4">
+        <v>1</v>
+      </c>
+      <c r="W75" s="4">
+        <v>1</v>
+      </c>
+      <c r="X75" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS75" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="A76" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
+      <c r="B76" s="4">
+        <v>0</v>
+      </c>
+      <c r="C76" s="4">
         <v>2</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H76" s="2">
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4">
         <v>0.65</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I76" s="4">
         <v>1.35</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76" s="4">
         <v>2949497.0159999998</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76" s="4">
         <v>2949497.0159999998</v>
       </c>
-      <c r="L76" s="2">
+      <c r="L76" s="4">
         <v>2949497.0159999998</v>
       </c>
-      <c r="M76" s="2">
+      <c r="M76" s="4">
         <v>2949497.0159999998</v>
       </c>
-      <c r="N76" s="2">
+      <c r="N76" s="4">
         <v>2949497.0159999998</v>
       </c>
-      <c r="O76" s="2">
+      <c r="O76" s="4">
         <v>2882114.0010000002</v>
       </c>
-      <c r="P76" s="2">
+      <c r="P76" s="4">
         <v>2930282.6320000002</v>
       </c>
-      <c r="Q76" s="2">
+      <c r="Q76" s="4">
         <v>2935616.1860000002</v>
       </c>
-      <c r="R76" s="2">
+      <c r="R76" s="4">
         <v>2939896.0109999999</v>
       </c>
-      <c r="S76" s="2">
+      <c r="S76" s="4">
         <v>2992902.0729999999</v>
       </c>
-      <c r="T76" s="2">
+      <c r="T76" s="4">
         <v>3064530.6830000002</v>
       </c>
-      <c r="U76" s="2">
+      <c r="U76" s="4">
         <v>3128671.8130000001</v>
       </c>
-      <c r="V76" s="2">
+      <c r="V76" s="4">
         <v>3198069.449</v>
       </c>
-      <c r="W76" s="2">
+      <c r="W76" s="4">
         <v>3271283.398</v>
       </c>
-      <c r="X76" s="2">
+      <c r="X76" s="4">
         <v>3309137.852</v>
       </c>
-      <c r="Y76" s="2">
+      <c r="Y76" s="4">
         <v>3347430.3480000002</v>
       </c>
-      <c r="Z76" s="2">
+      <c r="Z76" s="4">
         <v>3386165.9550000001</v>
       </c>
-      <c r="AA76" s="2">
+      <c r="AA76" s="4">
         <v>3425349.801</v>
       </c>
-      <c r="AB76" s="2">
+      <c r="AB76" s="4">
         <v>3464987.0720000002</v>
       </c>
-      <c r="AC76" s="2">
+      <c r="AC76" s="4">
         <v>3505083.0159999998</v>
       </c>
-      <c r="AD76" s="2">
+      <c r="AD76" s="4">
         <v>3545642.9389999998</v>
       </c>
-      <c r="AE76" s="2">
+      <c r="AE76" s="4">
         <v>3586672.2119999998</v>
       </c>
-      <c r="AF76" s="2">
+      <c r="AF76" s="4">
         <v>3628176.2650000001</v>
       </c>
-      <c r="AG76" s="2">
+      <c r="AG76" s="4">
         <v>3670160.5920000002</v>
       </c>
-      <c r="AH76" s="2">
+      <c r="AH76" s="4">
         <v>3712630.7510000002</v>
       </c>
-      <c r="AI76" s="2">
+      <c r="AI76" s="4">
         <v>3755592.3640000001</v>
       </c>
-      <c r="AJ76" s="2">
+      <c r="AJ76" s="4">
         <v>3799051.1179999998</v>
       </c>
-      <c r="AK76" s="2">
+      <c r="AK76" s="4">
         <v>3843012.7650000001</v>
       </c>
-      <c r="AL76" s="2">
+      <c r="AL76" s="4">
         <v>3887483.125</v>
       </c>
-      <c r="AM76" s="2">
+      <c r="AM76" s="4">
         <v>3932468.085</v>
       </c>
-      <c r="AN76" s="2">
+      <c r="AN76" s="4">
         <v>3977973.5989999999</v>
       </c>
-      <c r="AO76" s="2">
+      <c r="AO76" s="4">
         <v>4024005.6910000001</v>
       </c>
-      <c r="AP76" s="2">
+      <c r="AP76" s="4">
         <v>4070570.4550000001</v>
       </c>
-      <c r="AQ76" s="2">
+      <c r="AQ76" s="4">
         <v>4117674.0550000002</v>
       </c>
-      <c r="AR76" s="2">
+      <c r="AR76" s="4">
         <v>4165322.7250000001</v>
       </c>
-      <c r="AS76" s="2">
+      <c r="AS76" s="4">
         <v>4213522.7740000002</v>
       </c>
     </row>
     <row r="77" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="A77" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
+      <c r="B77" s="4">
+        <v>0</v>
+      </c>
+      <c r="C77" s="4">
         <v>2</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="2">
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4">
         <v>0.65</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="4">
         <v>1.35</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="4">
         <v>830763.7034</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K77" s="4">
         <v>830763.7034</v>
       </c>
-      <c r="L77" s="2">
+      <c r="L77" s="4">
         <v>830763.7034</v>
       </c>
-      <c r="M77" s="2">
+      <c r="M77" s="4">
         <v>830763.7034</v>
       </c>
-      <c r="N77" s="2">
+      <c r="N77" s="4">
         <v>830763.7034</v>
       </c>
-      <c r="O77" s="2">
+      <c r="O77" s="4">
         <v>802806.64069999999</v>
       </c>
-      <c r="P77" s="2">
+      <c r="P77" s="4">
         <v>896354.79709999997</v>
       </c>
-      <c r="Q77" s="2">
+      <c r="Q77" s="4">
         <v>952306.27639999997</v>
       </c>
-      <c r="R77" s="2">
+      <c r="R77" s="4">
         <v>965025.56279999996</v>
       </c>
-      <c r="S77" s="2">
+      <c r="S77" s="4">
         <v>976832.66020000004</v>
       </c>
-      <c r="T77" s="2">
+      <c r="T77" s="4">
         <v>986067.30119999999</v>
       </c>
-      <c r="U77" s="2">
+      <c r="U77" s="4">
         <v>981086.13569999998</v>
       </c>
-      <c r="V77" s="2">
+      <c r="V77" s="4">
         <v>983736.63040000002</v>
       </c>
-      <c r="W77" s="2">
+      <c r="W77" s="4">
         <v>990223.44819999998</v>
       </c>
-      <c r="X77" s="2">
+      <c r="X77" s="4">
         <v>1009731.862</v>
       </c>
-      <c r="Y77" s="2">
+      <c r="Y77" s="4">
         <v>1029624.612</v>
       </c>
-      <c r="Z77" s="2">
+      <c r="Z77" s="4">
         <v>1049909.27</v>
       </c>
-      <c r="AA77" s="2">
+      <c r="AA77" s="4">
         <v>1070593.5560000001</v>
       </c>
-      <c r="AB77" s="2">
+      <c r="AB77" s="4">
         <v>1091685.3430000001</v>
       </c>
-      <c r="AC77" s="2">
+      <c r="AC77" s="4">
         <v>1113192.6610000001</v>
       </c>
-      <c r="AD77" s="2">
+      <c r="AD77" s="4">
         <v>1135123.6939999999</v>
       </c>
-      <c r="AE77" s="2">
+      <c r="AE77" s="4">
         <v>1157486.791</v>
       </c>
-      <c r="AF77" s="2">
+      <c r="AF77" s="4">
         <v>1180290.4650000001</v>
       </c>
-      <c r="AG77" s="2">
+      <c r="AG77" s="4">
         <v>1203543.3929999999</v>
       </c>
-      <c r="AH77" s="2">
+      <c r="AH77" s="4">
         <v>1227254.429</v>
       </c>
-      <c r="AI77" s="2">
+      <c r="AI77" s="4">
         <v>1251432.5959999999</v>
       </c>
-      <c r="AJ77" s="2">
+      <c r="AJ77" s="4">
         <v>1276087.0970000001</v>
       </c>
-      <c r="AK77" s="2">
+      <c r="AK77" s="4">
         <v>1301227.317</v>
       </c>
-      <c r="AL77" s="2">
+      <c r="AL77" s="4">
         <v>1326862.8259999999</v>
       </c>
-      <c r="AM77" s="2">
+      <c r="AM77" s="4">
         <v>1353003.38</v>
       </c>
-      <c r="AN77" s="2">
+      <c r="AN77" s="4">
         <v>1379658.93</v>
       </c>
-      <c r="AO77" s="2">
+      <c r="AO77" s="4">
         <v>1406839.621</v>
       </c>
-      <c r="AP77" s="2">
+      <c r="AP77" s="4">
         <v>1434555.8</v>
       </c>
-      <c r="AQ77" s="2">
+      <c r="AQ77" s="4">
         <v>1462818.0160000001</v>
       </c>
-      <c r="AR77" s="2">
+      <c r="AR77" s="4">
         <v>1491637.0260000001</v>
       </c>
-      <c r="AS77" s="2">
+      <c r="AS77" s="4">
         <v>1521023.801</v>
       </c>
     </row>
     <row r="78" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="A78" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
+      <c r="B78" s="4">
+        <v>0</v>
+      </c>
+      <c r="C78" s="4">
         <v>2</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H78" s="2">
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4">
         <v>0.65</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I78" s="4">
         <v>1.35</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="4">
         <v>3149.52</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78" s="4">
         <v>3149.52</v>
       </c>
-      <c r="L78" s="2">
+      <c r="L78" s="4">
         <v>3149.52</v>
       </c>
-      <c r="M78" s="2">
+      <c r="M78" s="4">
         <v>3149.52</v>
       </c>
-      <c r="N78" s="2">
+      <c r="N78" s="4">
         <v>3149.52</v>
       </c>
-      <c r="O78" s="2">
+      <c r="O78" s="4">
         <v>3138.41</v>
       </c>
-      <c r="P78" s="2">
+      <c r="P78" s="4">
         <v>3156.34</v>
       </c>
-      <c r="Q78" s="2">
+      <c r="Q78" s="4">
         <v>3155.35</v>
       </c>
-      <c r="R78" s="2">
+      <c r="R78" s="4">
         <v>3162.94</v>
       </c>
-      <c r="S78" s="2">
+      <c r="S78" s="4">
         <v>3167.34</v>
       </c>
-      <c r="T78" s="2">
+      <c r="T78" s="4">
         <v>3176.91</v>
       </c>
-      <c r="U78" s="2">
+      <c r="U78" s="4">
         <v>3184.39</v>
       </c>
-      <c r="V78" s="2">
+      <c r="V78" s="4">
         <v>3194.51</v>
       </c>
-      <c r="W78" s="2">
+      <c r="W78" s="4">
         <v>3201.44</v>
       </c>
-      <c r="X78" s="2">
+      <c r="X78" s="4">
         <v>3207.2614659999999</v>
       </c>
-      <c r="Y78" s="2">
+      <c r="Y78" s="4">
         <v>3213.0935180000001</v>
       </c>
-      <c r="Z78" s="2">
+      <c r="Z78" s="4">
         <v>3218.9361760000002</v>
       </c>
-      <c r="AA78" s="2">
+      <c r="AA78" s="4">
         <v>3224.7894569999999</v>
       </c>
-      <c r="AB78" s="2">
+      <c r="AB78" s="4">
         <v>3230.653382</v>
       </c>
-      <c r="AC78" s="2">
+      <c r="AC78" s="4">
         <v>3236.5279690000002</v>
       </c>
-      <c r="AD78" s="2">
+      <c r="AD78" s="4">
         <v>3242.413239</v>
       </c>
-      <c r="AE78" s="2">
+      <c r="AE78" s="4">
         <v>3248.3092109999998</v>
       </c>
-      <c r="AF78" s="2">
+      <c r="AF78" s="4">
         <v>3254.2159040000001</v>
       </c>
-      <c r="AG78" s="2">
+      <c r="AG78" s="4">
         <v>3260.1333370000002</v>
       </c>
-      <c r="AH78" s="2">
+      <c r="AH78" s="4">
         <v>3266.0615309999998</v>
       </c>
-      <c r="AI78" s="2">
+      <c r="AI78" s="4">
         <v>3272.000505</v>
       </c>
-      <c r="AJ78" s="2">
+      <c r="AJ78" s="4">
         <v>3277.9502779999998</v>
       </c>
-      <c r="AK78" s="2">
+      <c r="AK78" s="4">
         <v>3283.9108700000002</v>
       </c>
-      <c r="AL78" s="2">
+      <c r="AL78" s="4">
         <v>3289.8823000000002</v>
       </c>
-      <c r="AM78" s="2">
+      <c r="AM78" s="4">
         <v>3295.8645889999998</v>
       </c>
-      <c r="AN78" s="2">
+      <c r="AN78" s="4">
         <v>3301.8577559999999</v>
       </c>
-      <c r="AO78" s="2">
+      <c r="AO78" s="4">
         <v>3307.861821</v>
       </c>
-      <c r="AP78" s="2">
+      <c r="AP78" s="4">
         <v>3313.876804</v>
       </c>
-      <c r="AQ78" s="2">
+      <c r="AQ78" s="4">
         <v>3319.902724</v>
       </c>
-      <c r="AR78" s="2">
+      <c r="AR78" s="4">
         <v>3325.9396019999999</v>
       </c>
-      <c r="AS78" s="2">
+      <c r="AS78" s="4">
         <v>3331.9874570000002</v>
       </c>
     </row>
     <row r="79" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="A79" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
+      <c r="B79" s="4">
+        <v>0</v>
+      </c>
+      <c r="C79" s="4">
         <v>2</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H79" s="2">
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="4">
         <v>1.45</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="4">
         <v>121016.9599</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="4">
         <v>118430.7775</v>
       </c>
-      <c r="L79" s="2">
+      <c r="L79" s="4">
         <v>116918.7447</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M79" s="4">
         <v>113378.73789999999</v>
       </c>
-      <c r="N79" s="2">
+      <c r="N79" s="4">
         <v>116282.6213</v>
       </c>
-      <c r="O79" s="2">
+      <c r="O79" s="4">
         <v>120301.2629</v>
       </c>
-      <c r="P79" s="2">
+      <c r="P79" s="4">
         <v>122988.64109999999</v>
       </c>
-      <c r="Q79" s="2">
+      <c r="Q79" s="4">
         <v>126940.6444</v>
       </c>
-      <c r="R79" s="2">
+      <c r="R79" s="4">
         <v>130517.3986</v>
       </c>
-      <c r="S79" s="2">
+      <c r="S79" s="4">
         <v>134183.38010000001</v>
       </c>
-      <c r="T79" s="2">
+      <c r="T79" s="4">
         <v>137664.9455</v>
       </c>
-      <c r="U79" s="2">
+      <c r="U79" s="4">
         <v>141435.25320000001</v>
       </c>
-      <c r="V79" s="2">
+      <c r="V79" s="4">
         <v>144681.77600000001</v>
       </c>
-      <c r="W79" s="2">
+      <c r="W79" s="4">
         <v>147451.0361</v>
       </c>
-      <c r="X79" s="2">
+      <c r="X79" s="4">
         <v>151393.43830000001</v>
       </c>
-      <c r="Y79" s="2">
+      <c r="Y79" s="4">
         <v>155441.24859999999</v>
       </c>
-      <c r="Z79" s="2">
+      <c r="Z79" s="4">
         <v>159597.28539999999</v>
       </c>
-      <c r="AA79" s="2">
+      <c r="AA79" s="4">
         <v>163864.44219999999</v>
       </c>
-      <c r="AB79" s="2">
+      <c r="AB79" s="4">
         <v>168245.69010000001</v>
       </c>
-      <c r="AC79" s="2">
+      <c r="AC79" s="4">
         <v>172744.0796</v>
       </c>
-      <c r="AD79" s="2">
+      <c r="AD79" s="4">
         <v>177362.7426</v>
       </c>
-      <c r="AE79" s="2">
+      <c r="AE79" s="4">
         <v>182104.89490000001</v>
       </c>
-      <c r="AF79" s="2">
+      <c r="AF79" s="4">
         <v>186973.8383</v>
       </c>
-      <c r="AG79" s="2">
+      <c r="AG79" s="4">
         <v>191972.9627</v>
       </c>
-      <c r="AH79" s="2">
+      <c r="AH79" s="4">
         <v>197105.74890000001</v>
       </c>
-      <c r="AI79" s="2">
+      <c r="AI79" s="4">
         <v>202375.77050000001</v>
       </c>
-      <c r="AJ79" s="2">
+      <c r="AJ79" s="4">
         <v>207786.69680000001</v>
       </c>
-      <c r="AK79" s="2">
+      <c r="AK79" s="4">
         <v>213342.29519999999</v>
       </c>
-      <c r="AL79" s="2">
+      <c r="AL79" s="4">
         <v>219046.43369999999</v>
       </c>
-      <c r="AM79" s="2">
+      <c r="AM79" s="4">
         <v>224903.084</v>
       </c>
-      <c r="AN79" s="2">
+      <c r="AN79" s="4">
         <v>230916.32370000001</v>
       </c>
-      <c r="AO79" s="2">
+      <c r="AO79" s="4">
         <v>237090.3395</v>
       </c>
-      <c r="AP79" s="2">
+      <c r="AP79" s="4">
         <v>243429.4302</v>
       </c>
-      <c r="AQ79" s="2">
+      <c r="AQ79" s="4">
         <v>249938.0092</v>
       </c>
-      <c r="AR79" s="2">
+      <c r="AR79" s="4">
         <v>256620.6084</v>
       </c>
-      <c r="AS79" s="2">
+      <c r="AS79" s="4">
         <v>263481.88030000002</v>
       </c>
     </row>
     <row r="80" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="A80" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
+      <c r="B80" s="4">
+        <v>0</v>
+      </c>
+      <c r="C80" s="4">
         <v>2</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H80" s="2">
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4">
         <v>0.75</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="4">
         <v>1.25</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="4">
         <v>1170910.395</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="4">
         <v>1170910.395</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80" s="4">
         <v>1170910.395</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80" s="4">
         <v>1170910.395</v>
       </c>
-      <c r="N80" s="2">
+      <c r="N80" s="4">
         <v>1170910.395</v>
       </c>
-      <c r="O80" s="2">
+      <c r="O80" s="4">
         <v>1209180.693</v>
       </c>
-      <c r="P80" s="2">
+      <c r="P80" s="4">
         <v>1253332.4099999999</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="Q80" s="4">
         <v>1277056.4879999999</v>
       </c>
-      <c r="R80" s="2">
+      <c r="R80" s="4">
         <v>1295766.564</v>
       </c>
-      <c r="S80" s="2">
+      <c r="S80" s="4">
         <v>1312038.8940000001</v>
       </c>
-      <c r="T80" s="2">
+      <c r="T80" s="4">
         <v>1330783.1969999999</v>
       </c>
-      <c r="U80" s="2">
+      <c r="U80" s="4">
         <v>1351197.8740000001</v>
       </c>
-      <c r="V80" s="2">
+      <c r="V80" s="4">
         <v>1373852.827</v>
       </c>
-      <c r="W80" s="2">
+      <c r="W80" s="4">
         <v>1401578.027</v>
       </c>
-      <c r="X80" s="2">
+      <c r="X80" s="4">
         <v>1429862.74</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Y80" s="4">
         <v>1458718.2549999999</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="Z80" s="4">
         <v>1488156.0930000001</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AA80" s="4">
         <v>1518188.004</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AB80" s="4">
         <v>1548825.9779999999</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AC80" s="4">
         <v>1580082.2450000001</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AD80" s="4">
         <v>1611969.2830000001</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AE80" s="4">
         <v>1644499.821</v>
       </c>
-      <c r="AF80" s="2">
+      <c r="AF80" s="4">
         <v>1677686.845</v>
       </c>
-      <c r="AG80" s="2">
+      <c r="AG80" s="4">
         <v>1711543.605</v>
       </c>
-      <c r="AH80" s="2">
+      <c r="AH80" s="4">
         <v>1746083.6140000001</v>
       </c>
-      <c r="AI80" s="2">
+      <c r="AI80" s="4">
         <v>1781320.6629999999</v>
       </c>
-      <c r="AJ80" s="2">
+      <c r="AJ80" s="4">
         <v>1817268.8160000001</v>
       </c>
-      <c r="AK80" s="2">
+      <c r="AK80" s="4">
         <v>1853942.426</v>
       </c>
-      <c r="AL80" s="2">
+      <c r="AL80" s="4">
         <v>1891356.132</v>
       </c>
-      <c r="AM80" s="2">
+      <c r="AM80" s="4">
         <v>1929524.87</v>
       </c>
-      <c r="AN80" s="2">
+      <c r="AN80" s="4">
         <v>1968463.8759999999</v>
       </c>
-      <c r="AO80" s="2">
+      <c r="AO80" s="4">
         <v>2008188.696</v>
       </c>
-      <c r="AP80" s="2">
+      <c r="AP80" s="4">
         <v>2048715.1869999999</v>
       </c>
-      <c r="AQ80" s="2">
+      <c r="AQ80" s="4">
         <v>2090059.5279999999</v>
       </c>
-      <c r="AR80" s="2">
+      <c r="AR80" s="4">
         <v>2132238.2230000002</v>
       </c>
-      <c r="AS80" s="2">
+      <c r="AS80" s="4">
         <v>2175268.111</v>
       </c>
     </row>
     <row r="81" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
+      <c r="B81" s="4">
+        <v>0</v>
+      </c>
+      <c r="C81" s="4">
         <v>2</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H81" s="2">
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4">
         <v>0.8</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I81" s="4">
         <v>1.2</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J81" s="4">
         <v>242.21564459999999</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K81" s="4">
         <v>246.3601706</v>
       </c>
-      <c r="L81" s="2">
+      <c r="L81" s="4">
         <v>249.28834000000001</v>
       </c>
-      <c r="M81" s="2">
+      <c r="M81" s="4">
         <v>259.13353649999999</v>
       </c>
-      <c r="N81" s="2">
+      <c r="N81" s="4">
         <v>262.03064940000002</v>
       </c>
-      <c r="O81" s="2">
+      <c r="O81" s="4">
         <v>246.30881049999999</v>
       </c>
-      <c r="P81" s="2">
+      <c r="P81" s="4">
         <v>257.38039149999997</v>
       </c>
-      <c r="Q81" s="2">
+      <c r="Q81" s="4">
         <v>265.65774490000001</v>
       </c>
-      <c r="R81" s="2">
+      <c r="R81" s="4">
         <v>273.48136549999998</v>
       </c>
-      <c r="S81" s="2">
+      <c r="S81" s="4">
         <v>280.83801419999998</v>
       </c>
-      <c r="T81" s="2">
+      <c r="T81" s="4">
         <v>287.85896459999998</v>
       </c>
-      <c r="U81" s="2">
+      <c r="U81" s="4">
         <v>295.05543870000002</v>
       </c>
-      <c r="V81" s="2">
+      <c r="V81" s="4">
         <v>302.43182460000003</v>
       </c>
-      <c r="W81" s="2">
+      <c r="W81" s="4">
         <v>309.9926203</v>
       </c>
-      <c r="X81" s="2">
+      <c r="X81" s="4">
         <v>317.74243580000001</v>
       </c>
-      <c r="Y81" s="2">
+      <c r="Y81" s="4">
         <v>325.68599669999998</v>
       </c>
-      <c r="Z81" s="2">
+      <c r="Z81" s="4">
         <v>333.82814660000003</v>
       </c>
-      <c r="AA81" s="2">
+      <c r="AA81" s="4">
         <v>342.1738502</v>
       </c>
-      <c r="AB81" s="2">
+      <c r="AB81" s="4">
         <v>350.72819650000002</v>
       </c>
-      <c r="AC81" s="2">
+      <c r="AC81" s="4">
         <v>359.49640140000002</v>
       </c>
-      <c r="AD81" s="2">
+      <c r="AD81" s="4">
         <v>368.48381139999998</v>
       </c>
-      <c r="AE81" s="2">
+      <c r="AE81" s="4">
         <v>377.69590670000002</v>
       </c>
-      <c r="AF81" s="2">
+      <c r="AF81" s="4">
         <v>387.13830439999998</v>
       </c>
-      <c r="AG81" s="2">
+      <c r="AG81" s="4">
         <v>396.58455309999999</v>
       </c>
-      <c r="AH81" s="2">
+      <c r="AH81" s="4">
         <v>406.02873449999998</v>
       </c>
-      <c r="AI81" s="2">
+      <c r="AI81" s="4">
         <v>415.46504429999999</v>
       </c>
-      <c r="AJ81" s="2">
+      <c r="AJ81" s="4">
         <v>424.88779979999998</v>
       </c>
-      <c r="AK81" s="2">
+      <c r="AK81" s="4">
         <v>434.29144680000002</v>
       </c>
-      <c r="AL81" s="2">
+      <c r="AL81" s="4">
         <v>443.67056589999999</v>
       </c>
-      <c r="AM81" s="2">
+      <c r="AM81" s="4">
         <v>453.01987830000002</v>
       </c>
-      <c r="AN81" s="2">
+      <c r="AN81" s="4">
         <v>462.33425099999999</v>
       </c>
-      <c r="AO81" s="2">
+      <c r="AO81" s="4">
         <v>471.60870089999997</v>
       </c>
-      <c r="AP81" s="2">
+      <c r="AP81" s="4">
         <v>481.04087490000001</v>
       </c>
-      <c r="AQ81" s="2">
+      <c r="AQ81" s="4">
         <v>490.66169239999999</v>
       </c>
-      <c r="AR81" s="2">
+      <c r="AR81" s="4">
         <v>500.47492629999999</v>
       </c>
-      <c r="AS81" s="2">
+      <c r="AS81" s="4">
         <v>510.4844248</v>
       </c>
     </row>
     <row r="82" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
+      <c r="B82" s="4">
+        <v>0</v>
+      </c>
+      <c r="C82" s="4">
         <v>2</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H82" s="2">
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4">
         <v>0.8</v>
       </c>
-      <c r="I82" s="2">
+      <c r="I82" s="4">
         <v>1.2</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82" s="4">
         <v>17971423</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K82" s="4">
         <v>18167147</v>
       </c>
-      <c r="L82" s="2">
+      <c r="L82" s="4">
         <v>18419192</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M82" s="4">
         <v>18751405</v>
       </c>
-      <c r="N82" s="2">
+      <c r="N82" s="4">
         <v>19107216</v>
       </c>
-      <c r="O82" s="2">
+      <c r="O82" s="4">
         <v>19458310</v>
       </c>
-      <c r="P82" s="2">
+      <c r="P82" s="4">
         <v>19678363</v>
       </c>
-      <c r="Q82" s="2">
+      <c r="Q82" s="4">
         <v>19828563</v>
       </c>
-      <c r="R82" s="2">
+      <c r="R82" s="4">
         <v>19960889</v>
       </c>
-      <c r="S82" s="2">
+      <c r="S82" s="4">
         <v>20086377</v>
       </c>
-      <c r="T82" s="2">
+      <c r="T82" s="4">
         <v>20206953</v>
       </c>
-      <c r="U82" s="2">
+      <c r="U82" s="4">
         <v>20322807</v>
       </c>
-      <c r="V82" s="2">
+      <c r="V82" s="4">
         <v>20433791</v>
       </c>
-      <c r="W82" s="2">
+      <c r="W82" s="4">
         <v>20539666</v>
       </c>
-      <c r="X82" s="2">
+      <c r="X82" s="4">
         <v>20640230</v>
       </c>
-      <c r="Y82" s="2">
+      <c r="Y82" s="4">
         <v>20735289</v>
       </c>
-      <c r="Z82" s="2">
+      <c r="Z82" s="4">
         <v>20826397</v>
       </c>
-      <c r="AA82" s="2">
+      <c r="AA82" s="4">
         <v>20912278</v>
       </c>
-      <c r="AB82" s="2">
+      <c r="AB82" s="4">
         <v>20992831</v>
       </c>
-      <c r="AC82" s="2">
+      <c r="AC82" s="4">
         <v>21067996</v>
       </c>
-      <c r="AD82" s="2">
+      <c r="AD82" s="4">
         <v>21137769</v>
       </c>
-      <c r="AE82" s="2">
+      <c r="AE82" s="4">
         <v>21202223</v>
       </c>
-      <c r="AF82" s="2">
+      <c r="AF82" s="4">
         <v>21261462</v>
       </c>
-      <c r="AG82" s="2">
+      <c r="AG82" s="4">
         <v>21315630</v>
       </c>
-      <c r="AH82" s="2">
+      <c r="AH82" s="4">
         <v>21364889</v>
       </c>
-      <c r="AI82" s="2">
+      <c r="AI82" s="4">
         <v>21409418</v>
       </c>
-      <c r="AJ82" s="2">
+      <c r="AJ82" s="4">
         <v>21449428</v>
       </c>
-      <c r="AK82" s="2">
+      <c r="AK82" s="4">
         <v>21485105</v>
       </c>
-      <c r="AL82" s="2">
+      <c r="AL82" s="4">
         <v>21516611</v>
       </c>
-      <c r="AM82" s="2">
+      <c r="AM82" s="4">
         <v>21544064</v>
       </c>
-      <c r="AN82" s="2">
+      <c r="AN82" s="4">
         <v>21567513</v>
       </c>
-      <c r="AO82" s="2">
+      <c r="AO82" s="4">
         <v>21587015</v>
       </c>
-      <c r="AP82" s="2">
+      <c r="AP82" s="4">
         <v>21602589</v>
       </c>
-      <c r="AQ82" s="2">
+      <c r="AQ82" s="4">
         <v>21614271</v>
       </c>
-      <c r="AR82" s="2">
+      <c r="AR82" s="4">
         <v>21622101</v>
       </c>
-      <c r="AS82" s="2">
+      <c r="AS82" s="4">
         <v>21626079</v>
       </c>
     </row>
     <row r="83" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="A83" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4">
         <v>2</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H83" s="2">
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I83" s="4">
         <v>1.45</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83" s="4">
         <v>291205.970209122</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83" s="4">
         <v>307351.13955116202</v>
       </c>
-      <c r="L83" s="2">
+      <c r="L83" s="4">
         <v>294477.61412429903</v>
       </c>
-      <c r="M83" s="2">
+      <c r="M83" s="4">
         <v>265757.30055999698</v>
       </c>
-      <c r="N83" s="2">
+      <c r="N83" s="4">
         <v>282829.84477040701</v>
       </c>
-      <c r="O83" s="2">
+      <c r="O83" s="4">
         <v>305864.40383529197</v>
       </c>
-      <c r="P83" s="2">
+      <c r="P83" s="4">
         <v>315842.738895952</v>
       </c>
-      <c r="Q83" s="2">
+      <c r="Q83" s="4">
         <v>329165.81692342099</v>
       </c>
-      <c r="R83" s="2">
+      <c r="R83" s="4">
         <v>337106.24121812999</v>
       </c>
-      <c r="S83" s="2">
+      <c r="S83" s="4">
         <v>347967.65153137402</v>
       </c>
-      <c r="T83" s="2">
+      <c r="T83" s="4">
         <v>358566.06820648798</v>
       </c>
-      <c r="U83" s="2">
+      <c r="U83" s="4">
         <v>369803.12784670899</v>
       </c>
-      <c r="V83" s="2">
+      <c r="V83" s="4">
         <v>380573.70521688799</v>
       </c>
-      <c r="W83" s="2">
+      <c r="W83" s="4">
         <v>389080.66299776698</v>
       </c>
-      <c r="X83" s="2">
+      <c r="X83" s="4">
         <v>403116.09419811954</v>
       </c>
-      <c r="Y83" s="2">
+      <c r="Y83" s="4">
         <v>417657.82999727182</v>
       </c>
-      <c r="Z83" s="2">
+      <c r="Z83" s="4">
         <v>432724.13448295346</v>
       </c>
-      <c r="AA83" s="2">
+      <c r="AA83" s="4">
         <v>448333.93058917235</v>
       </c>
-      <c r="AB83" s="2">
+      <c r="AB83" s="4">
         <v>464506.8238629871</v>
       </c>
-      <c r="AC83" s="2">
+      <c r="AC83" s="4">
         <v>481263.12708862609</v>
       </c>
-      <c r="AD83" s="2">
+      <c r="AD83" s="4">
         <v>498623.88579988002</v>
       </c>
-      <c r="AE83" s="2">
+      <c r="AE83" s="4">
         <v>516610.90471281129</v>
       </c>
-      <c r="AF83" s="2">
+      <c r="AF83" s="4">
         <v>535246.77511197876</v>
       </c>
-      <c r="AG83" s="2">
+      <c r="AG83" s="4">
         <v>554554.90322457498</v>
       </c>
-      <c r="AH83" s="2">
+      <c r="AH83" s="4">
         <v>574559.53961811215</v>
       </c>
-      <c r="AI83" s="2">
+      <c r="AI83" s="4">
         <v>595285.80965858069</v>
       </c>
-      <c r="AJ83" s="2">
+      <c r="AJ83" s="4">
         <v>616759.7450673345</v>
       </c>
-      <c r="AK83" s="2">
+      <c r="AK83" s="4">
         <v>639008.31661633798</v>
       </c>
-      <c r="AL83" s="2">
+      <c r="AL83" s="4">
         <v>662059.46800283901</v>
       </c>
-      <c r="AM83" s="2">
+      <c r="AM83" s="4">
         <v>685942.15094601363</v>
       </c>
-      <c r="AN83" s="2">
+      <c r="AN83" s="4">
         <v>710686.36154966382</v>
       </c>
-      <c r="AO83" s="2">
+      <c r="AO83" s="4">
         <v>736323.17797663808</v>
       </c>
-      <c r="AP83" s="2">
+      <c r="AP83" s="4">
         <v>762884.79948229319</v>
       </c>
-      <c r="AQ83" s="2">
+      <c r="AQ83" s="4">
         <v>790404.58685602329</v>
       </c>
-      <c r="AR83" s="2">
+      <c r="AR83" s="4">
         <v>818917.10432164825</v>
       </c>
-      <c r="AS83" s="2">
+      <c r="AS83" s="4">
         <v>848458.16294928908</v>
       </c>
     </row>
     <row r="84" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="A84" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
+      <c r="C84" s="4">
         <v>2</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2">
+      <c r="F84" s="4"/>
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+      <c r="H84" s="4">
         <v>0.9</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J84" s="2">
-        <v>1</v>
-      </c>
-      <c r="K84" s="2">
-        <v>1</v>
-      </c>
-      <c r="L84" s="2">
-        <v>1</v>
-      </c>
-      <c r="M84" s="2">
-        <v>1</v>
-      </c>
-      <c r="N84" s="2">
-        <v>1</v>
-      </c>
-      <c r="O84" s="2">
-        <v>1</v>
-      </c>
-      <c r="P84" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="2">
-        <v>1</v>
-      </c>
-      <c r="R84" s="2">
-        <v>1</v>
-      </c>
-      <c r="S84" s="2">
-        <v>1</v>
-      </c>
-      <c r="T84" s="2">
-        <v>1</v>
-      </c>
-      <c r="U84" s="2">
-        <v>1</v>
-      </c>
-      <c r="V84" s="2">
-        <v>1</v>
-      </c>
-      <c r="W84" s="2">
-        <v>1</v>
-      </c>
-      <c r="X84" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y84" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS84" s="2">
+      <c r="J84" s="4">
+        <v>1</v>
+      </c>
+      <c r="K84" s="4">
+        <v>1</v>
+      </c>
+      <c r="L84" s="4">
+        <v>1</v>
+      </c>
+      <c r="M84" s="4">
+        <v>1</v>
+      </c>
+      <c r="N84" s="4">
+        <v>1</v>
+      </c>
+      <c r="O84" s="4">
+        <v>1</v>
+      </c>
+      <c r="P84" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>1</v>
+      </c>
+      <c r="R84" s="4">
+        <v>1</v>
+      </c>
+      <c r="S84" s="4">
+        <v>1</v>
+      </c>
+      <c r="T84" s="4">
+        <v>1</v>
+      </c>
+      <c r="U84" s="4">
+        <v>1</v>
+      </c>
+      <c r="V84" s="4">
+        <v>1</v>
+      </c>
+      <c r="W84" s="4">
+        <v>1</v>
+      </c>
+      <c r="X84" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y84" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS84" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="A85" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
+      <c r="B85" s="4">
+        <v>0</v>
+      </c>
+      <c r="C85" s="4">
         <v>2</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2">
+      <c r="F85" s="4"/>
+      <c r="G85" s="4">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4">
         <v>0.9</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J85" s="2">
-        <v>1</v>
-      </c>
-      <c r="K85" s="2">
-        <v>1</v>
-      </c>
-      <c r="L85" s="2">
-        <v>1</v>
-      </c>
-      <c r="M85" s="2">
-        <v>1</v>
-      </c>
-      <c r="N85" s="2">
-        <v>1</v>
-      </c>
-      <c r="O85" s="2">
-        <v>1</v>
-      </c>
-      <c r="P85" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="2">
-        <v>1</v>
-      </c>
-      <c r="R85" s="2">
-        <v>1</v>
-      </c>
-      <c r="S85" s="2">
-        <v>1</v>
-      </c>
-      <c r="T85" s="2">
-        <v>1</v>
-      </c>
-      <c r="U85" s="2">
-        <v>1</v>
-      </c>
-      <c r="V85" s="2">
-        <v>1</v>
-      </c>
-      <c r="W85" s="2">
-        <v>1</v>
-      </c>
-      <c r="X85" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y85" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS85" s="2">
+      <c r="J85" s="4">
+        <v>1</v>
+      </c>
+      <c r="K85" s="4">
+        <v>1</v>
+      </c>
+      <c r="L85" s="4">
+        <v>1</v>
+      </c>
+      <c r="M85" s="4">
+        <v>1</v>
+      </c>
+      <c r="N85" s="4">
+        <v>1</v>
+      </c>
+      <c r="O85" s="4">
+        <v>1</v>
+      </c>
+      <c r="P85" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>1</v>
+      </c>
+      <c r="R85" s="4">
+        <v>1</v>
+      </c>
+      <c r="S85" s="4">
+        <v>1</v>
+      </c>
+      <c r="T85" s="4">
+        <v>1</v>
+      </c>
+      <c r="U85" s="4">
+        <v>1</v>
+      </c>
+      <c r="V85" s="4">
+        <v>1</v>
+      </c>
+      <c r="W85" s="4">
+        <v>1</v>
+      </c>
+      <c r="X85" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y85" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS85" s="4">
         <v>1</v>
       </c>
     </row>
